--- a/results/mp/logistic/corona/confidence/42/0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,45 +40,45 @@
     <t>name</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -88,9 +88,6 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -100,24 +97,30 @@
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>to</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -127,150 +130,141 @@
     <t>wow</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>giving</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
@@ -280,19 +274,13 @@
     <t>you</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -650,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.726027397260274</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C3">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -769,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.9333333333333333</v>
@@ -819,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -861,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -869,7 +857,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6470588235294118</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -887,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6153846153846154</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>0.8947368421052632</v>
@@ -969,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5789473684210527</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,16 +978,16 @@
         <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.8928571428571429</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,49 +1007,49 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>0.875</v>
+      </c>
+      <c r="L9">
+        <v>98</v>
+      </c>
+      <c r="M9">
+        <v>98</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>14</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9">
-        <v>0.8846153846153846</v>
-      </c>
-      <c r="L9">
-        <v>23</v>
-      </c>
-      <c r="M9">
-        <v>23</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1090,16 +1078,16 @@
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8381201044386423</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="L10">
-        <v>321</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>321</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1119,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4864864864864865</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1137,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1169,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4666666666666667</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1187,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4338624338624338</v>
+        <v>0.4021164021164021</v>
       </c>
       <c r="C13">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1237,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.392156862745098</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>332</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.8113207547169812</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1319,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3546511627906977</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C15">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.8103448275862069</v>
+        <v>0.7911227154046997</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>303</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>303</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3389830508474576</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.8055555555555556</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1419,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2545454545454545</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1437,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.8048780487804879</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L17">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1461,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1469,49 +1457,49 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.24</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>58</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L18">
+        <v>64</v>
+      </c>
+      <c r="M18">
+        <v>64</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>18</v>
-      </c>
-      <c r="D18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>57</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1519,49 +1507,49 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2321428571428572</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>120</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L19">
+        <v>45</v>
+      </c>
+      <c r="M19">
+        <v>45</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>13</v>
-      </c>
-      <c r="D19">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>43</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L19">
-        <v>30</v>
-      </c>
-      <c r="M19">
-        <v>30</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1569,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2214765100671141</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.76875</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L20">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M20">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1611,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1388888888888889</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1637,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7676056338028169</v>
+        <v>0.765625</v>
       </c>
       <c r="L21">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="M21">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1661,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,13 +1657,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07539682539682539</v>
+        <v>0.03485254691689008</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1687,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.7578125</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="M22">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1711,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1719,37 +1707,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.009348807221147646</v>
+        <v>0.007157894736842105</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F23">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3073</v>
+        <v>2358</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1761,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1769,31 +1757,31 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006321112515802781</v>
+        <v>0.007015902712815715</v>
       </c>
       <c r="C24">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="F24">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2358</v>
+        <v>2123</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.7446808510638298</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L24">
         <v>35</v>
@@ -1811,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1819,49 +1807,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006086142322097378</v>
+        <v>0.00644122383252818</v>
       </c>
       <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>0.09</v>
+      </c>
+      <c r="F25">
+        <v>0.91</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3085</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L25">
+        <v>34</v>
+      </c>
+      <c r="M25">
+        <v>34</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>13</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>0.35</v>
-      </c>
-      <c r="F25">
-        <v>0.65</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2123</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1869,37 +1857,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.004470359572400389</v>
+        <v>0.00487012987012987</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E26">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="F26">
-        <v>0.53</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>5122</v>
+        <v>4291</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.7083333333333334</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1911,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1919,49 +1907,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.004021717273275689</v>
+        <v>0.004664723032069971</v>
       </c>
       <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>0.45</v>
+      </c>
+      <c r="F27">
+        <v>0.55</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>5121</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L27">
+        <v>43</v>
+      </c>
+      <c r="M27">
+        <v>43</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>20</v>
-      </c>
-      <c r="D27">
-        <v>43</v>
-      </c>
-      <c r="E27">
-        <v>0.53</v>
-      </c>
-      <c r="F27">
-        <v>0.47</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>4953</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L27">
-        <v>19</v>
-      </c>
-      <c r="M27">
-        <v>19</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1969,28 +1957,28 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.003713158505453702</v>
+        <v>0.00439146800501882</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E28">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="F28">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>4293</v>
+        <v>3174</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K28">
         <v>0.6744186046511628</v>
@@ -2015,8 +2003,32 @@
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.002615167974250654</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>0.66</v>
+      </c>
+      <c r="F29">
+        <v>0.34</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4958</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K29">
         <v>0.66</v>
@@ -2042,16 +2054,16 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.6571428571428571</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2063,21 +2075,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.6507936507936508</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2089,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.6441176470588236</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L32">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M32">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2115,21 +2127,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.6086956521739131</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2141,21 +2153,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.5941422594142259</v>
+        <v>0.625</v>
       </c>
       <c r="L34">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2167,21 +2179,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.5909090909090909</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2193,21 +2205,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.5898305084745763</v>
+        <v>0.6</v>
       </c>
       <c r="L36">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2219,47 +2231,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>14</v>
-      </c>
-      <c r="M37">
-        <v>14</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>10</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.5531914893617021</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L38">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="M38">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2271,21 +2283,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K39">
-        <v>0.55</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2297,21 +2309,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K40">
-        <v>0.5454545454545454</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2323,21 +2335,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K41">
-        <v>0.5384615384615384</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2349,21 +2361,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K42">
-        <v>0.5357142857142857</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2375,21 +2387,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K43">
-        <v>0.5357142857142857</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2401,21 +2413,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2427,15 +2439,15 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L45">
         <v>13</v>
@@ -2453,21 +2465,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K46">
-        <v>0.4814814814814815</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2479,21 +2491,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K47">
-        <v>0.4313725490196079</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2505,21 +2517,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K48">
-        <v>0.4269662921348314</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2536,16 +2548,16 @@
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K49">
-        <v>0.4047619047619048</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2557,21 +2569,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K50">
-        <v>0.3333333333333333</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2583,21 +2595,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K51">
-        <v>0.3205128205128205</v>
+        <v>0.234375</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2609,319 +2621,215 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52">
-        <v>0.3013698630136986</v>
+        <v>0.02086811352253756</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>51</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K53">
-        <v>0.2542372881355932</v>
+        <v>0.01087364079490064</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>44</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K54">
-        <v>0.25</v>
+        <v>0.01005656819610308</v>
       </c>
       <c r="L54">
         <v>16</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>48</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K55">
-        <v>0.02086811352253756</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N55">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1173</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="K56">
-        <v>0.01006289308176101</v>
+        <v>0.005017057997190448</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N56">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
       <c r="O56">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>1574</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="K57">
-        <v>0.0086271567891973</v>
+        <v>0.004079071226859115</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N57">
-        <v>0.77</v>
+        <v>0.48</v>
       </c>
       <c r="O57">
-        <v>0.23</v>
+        <v>0.52</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2643</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K58">
-        <v>0.007383100902378999</v>
+        <v>0.003890293717175647</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N58">
-        <v>0.72</v>
+        <v>0.45</v>
       </c>
       <c r="O58">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>2420</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="K59">
-        <v>0.005434782608695652</v>
+        <v>0.003714882749013234</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N59">
-        <v>0.87</v>
+        <v>0.43</v>
       </c>
       <c r="O59">
-        <v>0.13</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K60">
-        <v>0.005320813771517997</v>
-      </c>
-      <c r="L60">
-        <v>17</v>
-      </c>
-      <c r="M60">
-        <v>23</v>
-      </c>
-      <c r="N60">
-        <v>0.74</v>
-      </c>
-      <c r="O60">
-        <v>0.26</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61">
-        <v>0.004622186495176849</v>
-      </c>
-      <c r="L61">
-        <v>23</v>
-      </c>
-      <c r="M61">
-        <v>43</v>
-      </c>
-      <c r="N61">
-        <v>0.53</v>
-      </c>
-      <c r="O61">
-        <v>0.47</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>4953</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K62">
-        <v>0.004406307977736549</v>
-      </c>
-      <c r="L62">
-        <v>19</v>
-      </c>
-      <c r="M62">
-        <v>35</v>
-      </c>
-      <c r="N62">
-        <v>0.54</v>
-      </c>
-      <c r="O62">
-        <v>0.46</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K63">
-        <v>0.003889537145079735</v>
-      </c>
-      <c r="L63">
-        <v>20</v>
-      </c>
-      <c r="M63">
-        <v>43</v>
-      </c>
-      <c r="N63">
-        <v>0.47</v>
-      </c>
-      <c r="O63">
-        <v>0.53</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>5122</v>
+        <v>4291</v>
       </c>
     </row>
   </sheetData>
